--- a/01_AutomationTest_Learn_V0.1/File/Readfile/ReWrite.xlsx
+++ b/01_AutomationTest_Learn_V0.1/File/Readfile/ReWrite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\02_MBS\01_PoC_AutomationTest\Test\Typical Testcase\UiPath\01_AutomationTest_Learn_V0.1\File\Readfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA8CCE-A6CD-4422-AE2B-B1F2F516DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3C87D-993A-479B-A43A-DF14C9FFAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{91834C05-0A42-4BC7-BA5E-771729AB4576}"/>
   </bookViews>
@@ -403,65 +403,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE9A4A-20CF-4217-AF27-038973CB2073}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>42905</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>92039608</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42905</v>
+        <v>43042</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>92039608</v>
+        <v>92039640</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43042</v>
+        <v>42736</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>92039640</v>
+        <v>92039653</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>92039653</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
